--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="869">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -2834,6 +2834,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve"> *딸랑*</t>
@@ -4235,7 +4238,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4244,7 +4247,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4253,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4270,7 +4273,7 @@
         <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4281,7 +4284,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4290,7 +4293,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4309,7 +4312,7 @@
         <v>601</v>
       </c>
       <c r="C5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4334,7 +4337,7 @@
         <v>602</v>
       </c>
       <c r="C6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4347,7 +4350,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4356,7 +4359,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4373,7 +4376,7 @@
         <v>599</v>
       </c>
       <c r="C7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4384,7 +4387,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4393,7 +4396,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4412,7 +4415,7 @@
         <v>599</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4423,7 +4426,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4432,7 +4435,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4441,7 +4444,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4458,7 +4461,7 @@
         <v>599</v>
       </c>
       <c r="C9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4469,7 +4472,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4478,7 +4481,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4487,7 +4490,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4504,7 +4507,7 @@
         <v>599</v>
       </c>
       <c r="C10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4515,21 +4518,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4544,7 +4547,7 @@
         <v>603</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4555,7 +4558,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4564,7 +4567,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4573,7 +4576,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4590,7 +4593,7 @@
         <v>604</v>
       </c>
       <c r="C12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4601,7 +4604,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4610,7 +4613,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4619,7 +4622,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4636,7 +4639,7 @@
         <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4654,7 +4657,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4673,7 +4676,7 @@
         <v>602</v>
       </c>
       <c r="C14" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4684,7 +4687,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4693,7 +4696,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4702,7 +4705,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4719,7 +4722,7 @@
         <v>605</v>
       </c>
       <c r="C15" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4762,7 +4765,7 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4771,7 +4774,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4780,7 +4783,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4797,7 +4800,7 @@
         <v>607</v>
       </c>
       <c r="C17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4808,7 +4811,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4817,7 +4820,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4826,7 +4829,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4847,7 +4850,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4856,7 +4859,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4865,7 +4868,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4886,7 +4889,7 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4895,7 +4898,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4904,7 +4907,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4921,7 +4924,7 @@
         <v>599</v>
       </c>
       <c r="C20" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4932,7 +4935,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4941,7 +4944,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4950,7 +4953,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4971,7 +4974,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4980,7 +4983,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4989,7 +4992,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5010,7 +5013,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5019,7 +5022,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5028,7 +5031,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5045,7 +5048,7 @@
         <v>603</v>
       </c>
       <c r="C23" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5070,7 +5073,7 @@
         <v>599</v>
       </c>
       <c r="C24" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5081,7 +5084,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -5090,7 +5093,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5099,7 +5102,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5120,7 +5123,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5148,7 +5151,7 @@
         <v>599</v>
       </c>
       <c r="C26" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5161,7 +5164,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5170,7 +5173,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5191,7 +5194,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5200,7 +5203,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5209,7 +5212,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5226,7 +5229,7 @@
         <v>608</v>
       </c>
       <c r="C28" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5237,7 +5240,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5246,7 +5249,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5255,7 +5258,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5272,7 +5275,7 @@
         <v>609</v>
       </c>
       <c r="C29" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5283,7 +5286,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5292,7 +5295,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5301,7 +5304,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5318,7 +5321,7 @@
         <v>609</v>
       </c>
       <c r="C30" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5329,7 +5332,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5338,7 +5341,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5347,7 +5350,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5364,7 +5367,7 @@
         <v>609</v>
       </c>
       <c r="C31" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5375,7 +5378,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5384,7 +5387,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5393,7 +5396,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5410,7 +5413,7 @@
         <v>599</v>
       </c>
       <c r="C32" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5441,7 +5444,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5450,7 +5453,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5471,7 +5474,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5480,7 +5483,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5489,7 +5492,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5508,7 +5511,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5517,7 +5520,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5526,7 +5529,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5535,7 +5538,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5552,7 +5555,7 @@
         <v>610</v>
       </c>
       <c r="C36" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5605,7 +5608,7 @@
         <v>603</v>
       </c>
       <c r="C37" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D37" t="s">
         <v>233</v>
@@ -5614,7 +5617,7 @@
         <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G37" t="s">
         <v>235</v>
@@ -5623,7 +5626,7 @@
         <v>236</v>
       </c>
       <c r="I37" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J37" t="s">
         <v>222</v>
@@ -5632,7 +5635,7 @@
         <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M37" t="s">
         <v>224</v>
@@ -5641,7 +5644,7 @@
         <v>225</v>
       </c>
       <c r="O37" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5658,7 +5661,7 @@
         <v>599</v>
       </c>
       <c r="C38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D38" t="s">
         <v>238</v>
@@ -5701,7 +5704,7 @@
         <v>603</v>
       </c>
       <c r="C40" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5712,7 +5715,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J40" t="s">
         <v>244</v>
@@ -5721,7 +5724,7 @@
         <v>245</v>
       </c>
       <c r="L40" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M40" t="s">
         <v>246</v>
@@ -5730,7 +5733,7 @@
         <v>247</v>
       </c>
       <c r="O40" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P40" t="s">
         <v>248</v>
@@ -5747,7 +5750,7 @@
         <v>599</v>
       </c>
       <c r="C41" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D41" t="s">
         <v>251</v>
@@ -5758,7 +5761,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J41" t="s">
         <v>253</v>
@@ -5767,7 +5770,7 @@
         <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M41" t="s">
         <v>255</v>
@@ -5776,7 +5779,7 @@
         <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P41" t="s">
         <v>257</v>
@@ -5797,7 +5800,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J42" t="s">
         <v>260</v>
@@ -5806,7 +5809,7 @@
         <v>261</v>
       </c>
       <c r="L42" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M42" t="s">
         <v>262</v>
@@ -5815,7 +5818,7 @@
         <v>263</v>
       </c>
       <c r="O42" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -5834,7 +5837,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J43" t="s">
         <v>266</v>
@@ -5843,7 +5846,7 @@
         <v>267</v>
       </c>
       <c r="L43" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M43" t="s">
         <v>268</v>
@@ -5852,7 +5855,7 @@
         <v>269</v>
       </c>
       <c r="O43" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="P43" t="s">
         <v>270</v>
@@ -5875,7 +5878,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M44" t="s">
         <v>273</v>
@@ -5884,7 +5887,7 @@
         <v>274</v>
       </c>
       <c r="O44" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P44" t="s">
         <v>275</v>
@@ -5914,7 +5917,7 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -5923,7 +5926,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -5940,7 +5943,7 @@
         <v>603</v>
       </c>
       <c r="C46" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D46" t="s">
         <v>285</v>
@@ -5951,7 +5954,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J46" t="s">
         <v>287</v>
@@ -5960,7 +5963,7 @@
         <v>288</v>
       </c>
       <c r="L46" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M46" t="s">
         <v>289</v>
@@ -5969,7 +5972,7 @@
         <v>290</v>
       </c>
       <c r="O46" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P46" t="s">
         <v>282</v>
@@ -5986,7 +5989,7 @@
         <v>599</v>
       </c>
       <c r="C47" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D47" t="s">
         <v>292</v>
@@ -5997,7 +6000,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J47" t="s">
         <v>294</v>
@@ -6006,7 +6009,7 @@
         <v>295</v>
       </c>
       <c r="L47" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M47" t="s">
         <v>296</v>
@@ -6015,7 +6018,7 @@
         <v>297</v>
       </c>
       <c r="O47" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P47" t="s">
         <v>298</v>
@@ -6032,7 +6035,7 @@
         <v>603</v>
       </c>
       <c r="C48" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D48" t="s">
         <v>301</v>
@@ -6043,7 +6046,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J48" t="s">
         <v>303</v>
@@ -6052,7 +6055,7 @@
         <v>304</v>
       </c>
       <c r="L48" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M48" t="s">
         <v>305</v>
@@ -6061,7 +6064,7 @@
         <v>306</v>
       </c>
       <c r="O48" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="P48" t="s">
         <v>305</v>
@@ -6082,7 +6085,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J49" t="s">
         <v>308</v>
@@ -6091,7 +6094,7 @@
         <v>309</v>
       </c>
       <c r="L49" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M49" t="s">
         <v>310</v>
@@ -6100,7 +6103,7 @@
         <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P49" t="s">
         <v>312</v>
@@ -6117,7 +6120,7 @@
         <v>611</v>
       </c>
       <c r="C50" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6163,7 +6166,7 @@
         <v>608</v>
       </c>
       <c r="C51" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D51" t="s">
         <v>319</v>
@@ -6209,7 +6212,7 @@
         <v>611</v>
       </c>
       <c r="C52" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D52" t="s">
         <v>322</v>
@@ -6255,7 +6258,7 @@
         <v>611</v>
       </c>
       <c r="C53" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D53" t="s">
         <v>325</v>
@@ -6301,7 +6304,7 @@
         <v>601</v>
       </c>
       <c r="C54" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6312,7 +6315,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J54" t="s">
         <v>330</v>
@@ -6321,7 +6324,7 @@
         <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M54" t="s">
         <v>332</v>
@@ -6330,7 +6333,7 @@
         <v>333</v>
       </c>
       <c r="O54" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P54" t="s">
         <v>334</v>
@@ -6351,7 +6354,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J55" t="s">
         <v>337</v>
@@ -6360,7 +6363,7 @@
         <v>338</v>
       </c>
       <c r="L55" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M55" t="s">
         <v>339</v>
@@ -6369,7 +6372,7 @@
         <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P55" t="s">
         <v>341</v>
@@ -6386,7 +6389,7 @@
         <v>599</v>
       </c>
       <c r="C56" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D56" t="s">
         <v>344</v>
@@ -6432,7 +6435,7 @@
         <v>599</v>
       </c>
       <c r="C57" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D57" t="s">
         <v>347</v>
@@ -6441,7 +6444,7 @@
         <v>348</v>
       </c>
       <c r="F57" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G57" t="s">
         <v>349</v>
@@ -6485,7 +6488,7 @@
         <v>612</v>
       </c>
       <c r="C58" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D58" t="s">
         <v>352</v>
@@ -6527,7 +6530,7 @@
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G59" t="s">
         <v>355</v>
@@ -6571,7 +6574,7 @@
         <v>603</v>
       </c>
       <c r="C60" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D60" t="s">
         <v>359</v>
@@ -6580,7 +6583,7 @@
         <v>360</v>
       </c>
       <c r="F60" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G60" t="s">
         <v>361</v>
@@ -6626,7 +6629,7 @@
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G61" t="s">
         <v>364</v>
@@ -6670,7 +6673,7 @@
         <v>613</v>
       </c>
       <c r="C62" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6681,7 +6684,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J62" t="s">
         <v>370</v>
@@ -6690,7 +6693,7 @@
         <v>371</v>
       </c>
       <c r="L62" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M62" t="s">
         <v>372</v>
@@ -6699,7 +6702,7 @@
         <v>373</v>
       </c>
       <c r="O62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P62" t="s">
         <v>374</v>
@@ -6716,7 +6719,7 @@
         <v>603</v>
       </c>
       <c r="C63" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D63" t="s">
         <v>377</v>
@@ -6727,7 +6730,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J63" t="s">
         <v>379</v>
@@ -6736,7 +6739,7 @@
         <v>380</v>
       </c>
       <c r="L63" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M63" t="s">
         <v>381</v>
@@ -6745,7 +6748,7 @@
         <v>382</v>
       </c>
       <c r="O63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P63" t="s">
         <v>383</v>
@@ -6762,7 +6765,7 @@
         <v>603</v>
       </c>
       <c r="C64" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6773,7 +6776,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J64" t="s">
         <v>388</v>
@@ -6782,7 +6785,7 @@
         <v>389</v>
       </c>
       <c r="L64" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M64" t="s">
         <v>390</v>
@@ -6791,7 +6794,7 @@
         <v>391</v>
       </c>
       <c r="O64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P64" t="s">
         <v>392</v>
@@ -6810,7 +6813,7 @@
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G65" t="s">
         <v>395</v>
@@ -6835,7 +6838,7 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G66" t="s">
         <v>398</v>
@@ -6879,7 +6882,7 @@
         <v>614</v>
       </c>
       <c r="C67" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6890,7 +6893,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J67" t="s">
         <v>403</v>
@@ -6899,7 +6902,7 @@
         <v>404</v>
       </c>
       <c r="L67" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M67" t="s">
         <v>405</v>
@@ -6908,7 +6911,7 @@
         <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="P67" t="s">
         <v>407</v>
@@ -6925,7 +6928,7 @@
         <v>599</v>
       </c>
       <c r="C68" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6950,7 +6953,7 @@
         <v>603</v>
       </c>
       <c r="C69" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -6975,7 +6978,7 @@
         <v>599</v>
       </c>
       <c r="C70" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D70" t="s">
         <v>416</v>
@@ -7000,7 +7003,7 @@
         <v>599</v>
       </c>
       <c r="C71" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D71" t="s">
         <v>419</v>
@@ -7025,7 +7028,7 @@
         <v>599</v>
       </c>
       <c r="C72" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="s">
@@ -7034,7 +7037,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -7053,7 +7056,7 @@
         <v>599</v>
       </c>
       <c r="C73" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
@@ -7062,7 +7065,7 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
@@ -7081,7 +7084,7 @@
         <v>599</v>
       </c>
       <c r="C74" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
@@ -7090,21 +7093,21 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
         <v>429</v>
       </c>
       <c r="L74" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="s">
         <v>430</v>
       </c>
       <c r="O74" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="P74" t="s">
         <v>431</v>
@@ -7121,7 +7124,7 @@
         <v>615</v>
       </c>
       <c r="C75" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D75" t="s">
         <v>434</v>
@@ -7132,21 +7135,21 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
         <v>429</v>
       </c>
       <c r="L75" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="s">
         <v>436</v>
       </c>
       <c r="O75" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="P75" t="s">
         <v>431</v>
@@ -7169,7 +7172,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M76" t="s">
         <v>439</v>
@@ -7188,7 +7191,7 @@
         <v>599</v>
       </c>
       <c r="C77" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D77" t="s">
         <v>442</v>
@@ -7213,7 +7216,7 @@
         <v>599</v>
       </c>
       <c r="C78" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D78" t="s">
         <v>445</v>
@@ -7238,7 +7241,7 @@
         <v>605</v>
       </c>
       <c r="C79" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D79" t="s">
         <v>448</v>
@@ -7251,7 +7254,7 @@
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M79" t="s">
         <v>450</v>
@@ -7270,7 +7273,7 @@
         <v>605</v>
       </c>
       <c r="C80" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D80" t="s">
         <v>453</v>
@@ -7283,7 +7286,7 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M80" t="s">
         <v>455</v>
@@ -7302,7 +7305,7 @@
         <v>599</v>
       </c>
       <c r="C81" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
@@ -7325,7 +7328,7 @@
         <v>599</v>
       </c>
       <c r="C82" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D82" t="s">
         <v>460</v>
@@ -7336,14 +7339,14 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
         <v>462</v>
       </c>
       <c r="L82" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="s">
@@ -7360,7 +7363,7 @@
         <v>599</v>
       </c>
       <c r="C83" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D83" t="s">
         <v>464</v>
@@ -7371,7 +7374,7 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J83" t="s">
         <v>466</v>
@@ -7380,7 +7383,7 @@
         <v>467</v>
       </c>
       <c r="L83" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M83" t="s">
         <v>468</v>
@@ -7389,7 +7392,7 @@
         <v>469</v>
       </c>
       <c r="O83" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="P83" t="s">
         <v>470</v>
@@ -7406,7 +7409,7 @@
         <v>603</v>
       </c>
       <c r="C84" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D84" t="s">
         <v>473</v>
@@ -7437,7 +7440,7 @@
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M85" t="s">
         <v>476</v>
@@ -7446,7 +7449,7 @@
         <v>274</v>
       </c>
       <c r="O85" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="P85" t="s">
         <v>477</v>
@@ -7465,7 +7468,7 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G86" t="s">
         <v>480</v>
@@ -7509,7 +7512,7 @@
         <v>599</v>
       </c>
       <c r="C87" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D87" t="s">
         <v>483</v>
@@ -7518,7 +7521,7 @@
         <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G87" t="s">
         <v>485</v>
@@ -7541,7 +7544,7 @@
         <v>599</v>
       </c>
       <c r="C88" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D88" t="s">
         <v>488</v>
@@ -7550,7 +7553,7 @@
         <v>484</v>
       </c>
       <c r="F88" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G88" t="s">
         <v>489</v>
@@ -7573,7 +7576,7 @@
         <v>599</v>
       </c>
       <c r="C89" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D89" t="s">
         <v>492</v>
@@ -7582,7 +7585,7 @@
         <v>493</v>
       </c>
       <c r="F89" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G89" t="s">
         <v>494</v>
@@ -7605,7 +7608,7 @@
         <v>599</v>
       </c>
       <c r="C90" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D90" t="s">
         <v>497</v>
@@ -7630,7 +7633,7 @@
         <v>599</v>
       </c>
       <c r="C91" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D91" t="s">
         <v>500</v>
@@ -7655,7 +7658,7 @@
         <v>599</v>
       </c>
       <c r="C92" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D92" t="s">
         <v>503</v>
@@ -7664,7 +7667,7 @@
         <v>504</v>
       </c>
       <c r="F92" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G92" t="s">
         <v>505</v>
@@ -7687,7 +7690,7 @@
         <v>602</v>
       </c>
       <c r="C93" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D93" t="s">
         <v>508</v>
@@ -7698,7 +7701,7 @@
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J93" t="s">
         <v>510</v>
@@ -7707,7 +7710,7 @@
         <v>511</v>
       </c>
       <c r="L93" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M93" t="s">
         <v>512</v>
@@ -7716,7 +7719,7 @@
         <v>513</v>
       </c>
       <c r="O93" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="P93" t="s">
         <v>514</v>
@@ -7733,7 +7736,7 @@
         <v>599</v>
       </c>
       <c r="C94" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D94" t="s">
         <v>517</v>
@@ -7758,7 +7761,7 @@
         <v>616</v>
       </c>
       <c r="C95" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D95" t="s">
         <v>520</v>
@@ -7807,7 +7810,7 @@
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M97" t="s">
         <v>524</v>
@@ -7826,7 +7829,7 @@
         <v>618</v>
       </c>
       <c r="C98" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D98" t="s">
         <v>527</v>
@@ -7837,7 +7840,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J98" t="s">
         <v>529</v>
@@ -7846,7 +7849,7 @@
         <v>530</v>
       </c>
       <c r="L98" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M98" t="s">
         <v>531</v>
@@ -7855,7 +7858,7 @@
         <v>532</v>
       </c>
       <c r="O98" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="P98" t="s">
         <v>533</v>
@@ -7872,7 +7875,7 @@
         <v>619</v>
       </c>
       <c r="C99" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D99" t="s">
         <v>536</v>
@@ -7883,7 +7886,7 @@
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J99" t="s">
         <v>538</v>
@@ -7892,7 +7895,7 @@
         <v>539</v>
       </c>
       <c r="L99" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M99" t="s">
         <v>540</v>
@@ -7901,7 +7904,7 @@
         <v>541</v>
       </c>
       <c r="O99" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="P99" t="s">
         <v>542</v>
@@ -7918,7 +7921,7 @@
         <v>601</v>
       </c>
       <c r="C100" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D100" t="s">
         <v>545</v>
@@ -7929,7 +7932,7 @@
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J100" t="s">
         <v>547</v>
@@ -7938,7 +7941,7 @@
         <v>548</v>
       </c>
       <c r="L100" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M100" t="s">
         <v>476</v>
@@ -7947,7 +7950,7 @@
         <v>274</v>
       </c>
       <c r="O100" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P100" t="s">
         <v>549</v>
@@ -7964,7 +7967,7 @@
         <v>603</v>
       </c>
       <c r="C101" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D101" t="s">
         <v>552</v>
@@ -7975,7 +7978,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J101" t="s">
         <v>554</v>
@@ -7984,7 +7987,7 @@
         <v>555</v>
       </c>
       <c r="L101" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M101" t="s">
         <v>556</v>
@@ -7993,7 +7996,7 @@
         <v>557</v>
       </c>
       <c r="O101" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="P101" t="s">
         <v>558</v>
@@ -8010,7 +8013,7 @@
         <v>601</v>
       </c>
       <c r="C102" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D102" t="s">
         <v>561</v>
@@ -8023,7 +8026,7 @@
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M102" t="s">
         <v>563</v>
@@ -8032,7 +8035,7 @@
         <v>564</v>
       </c>
       <c r="O102" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="P102" t="s">
         <v>565</v>
@@ -8049,7 +8052,7 @@
         <v>601</v>
       </c>
       <c r="C103" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D103" t="s">
         <v>568</v>
@@ -8062,7 +8065,7 @@
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M103" t="s">
         <v>570</v>
@@ -8078,10 +8081,10 @@
         <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>620</v>
       </c>
       <c r="C104" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D104" t="s">
         <v>573</v>
@@ -8092,7 +8095,7 @@
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J104" t="s">
         <v>575</v>
@@ -8101,7 +8104,7 @@
         <v>576</v>
       </c>
       <c r="L104" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M104" t="s">
         <v>577</v>
@@ -8110,7 +8113,7 @@
         <v>578</v>
       </c>
       <c r="O104" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="P104" t="s">
         <v>579</v>
@@ -8127,7 +8130,7 @@
         <v>601</v>
       </c>
       <c r="C105" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D105" t="s">
         <v>582</v>
@@ -8138,7 +8141,7 @@
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J105" t="s">
         <v>584</v>
@@ -8147,7 +8150,7 @@
         <v>585</v>
       </c>
       <c r="L105" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M105" t="s">
         <v>586</v>
@@ -8156,7 +8159,7 @@
         <v>587</v>
       </c>
       <c r="O105" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="P105" t="s">
         <v>588</v>
@@ -8173,7 +8176,7 @@
         <v>608</v>
       </c>
       <c r="C106" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D106" t="s">
         <v>591</v>
@@ -8184,7 +8187,7 @@
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J106" t="s">
         <v>593</v>
@@ -8193,7 +8196,7 @@
         <v>594</v>
       </c>
       <c r="L106" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M106" t="s">
         <v>595</v>
@@ -8202,7 +8205,7 @@
         <v>596</v>
       </c>
       <c r="O106" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="P106" t="s">
         <v>597</v>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="869">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -4334,7 +4334,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>623</v>
@@ -4673,7 +4673,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>631</v>
@@ -7687,7 +7687,7 @@
         <v>507</v>
       </c>
       <c r="B93" t="s">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
         <v>685</v>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="931">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1344,7 +1344,7 @@
     <t xml:space="preserve">strange_girl</t>
   </si>
   <si>
-    <t xml:space="preserve">「저 애들은 기분 나빠」
+    <t xml:space="preserve">「저 애들 기분 나빠」
 「빨리 집에 돌아가고 싶어」
 「아빠 아직이야～?」
 「여기 너무 싫어」
@@ -1411,6 +1411,33 @@
 「あの地図はどこに置いたか…」
 「またクモが巣を張っている」
 「足元には気をつけて歩いてくれ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「곤란하다고, 이런 건」
+「이것도 공부가 되겠지」
+「말려도 소용 없나」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"That’s a problem."
+"This too is part of my training."
+"No use stopping it." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「困るんだ、そういうの」
+「これも研鑽だ」
+「止めても無駄か」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「이 소식을… 팔미아에…」
+「 …으, 으윽 」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ugh..." 
+"This message... to Palmia..." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「この知らせを…パルミアに…」
+「 …う、うぅ 」</t>
   </si>
   <si>
     <t xml:space="preserve">adventurer_fox</t>
@@ -1462,7 +1489,7 @@
 「今更謝っても遅い{よ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이 자식… 기억해 둬」
+    <t xml:space="preserve">「이 자식… 두고보자」
 「으아악」
 「살인자{다}!」
 「하지 마-」
@@ -1598,8 +1625,8 @@
     <t xml:space="preserve">주위는 축제에 온 사람들로 붐비고 있다.
 즐거운 듯한 웃음소리가 들린다.
 누군가가 #festival 노래를 흥얼거렸다.
-～와글와글～
-～왁자지껄～</t>
+ *와글와글*
+ *왁자지껄*</t>
   </si>
   <si>
     <t xml:space="preserve">The area is alive with festival-goers.
@@ -2618,7 +2645,7 @@
 「윌로우 키친의 파이는 일품이다!」
 「미실리아는 앞으로 어떻게 되는 걸까?」
 「오래된 숲에는 접근하지 마라」
-「이 땅도 이제 제법 살기 좋은 &amp;곳처럼 보이는구만」</t>
+「이 땅도 이제 제법 &amp;살기 좋은 곳처럼 보이는구만」</t>
   </si>
   <si>
     <t xml:space="preserve">You hear someone tending to their weapons.
@@ -3691,7 +3718,7 @@
     <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
-    <t xml:space="preserve">「오래된 존재들은 재앙을 가져온다」
+    <t xml:space="preserve">「오래된 존재들은 재앙을 불러온다…」
 「크크크…」
 「신화는, 시간의 사막에서 진실을 잃어버리게 되겠지」
 「신들은 오만하다」
@@ -3713,7 +3740,7 @@
   </si>
   <si>
     <t xml:space="preserve">「크크…」
-「파멸을 원하는가」
+「파멸을 바라는가」
 「내게 칼날을 들이대는 건가」
 「그대의 힘, 한 번 보여다오」</t>
   </si>
@@ -3730,7 +3757,7 @@
 「汝の力、見せてもらおう」</t>
   </si>
   <si>
-    <t xml:space="preserve">「미안, 테레시아…」
+    <t xml:space="preserve">「미안하다, 테레시아…」
 「어둠으로 돌아가자」
 「크크크…」</t>
   </si>
@@ -4060,7 +4087,7 @@
   <si>
     <t xml:space="preserve">「허접」 
 「허접?」
-「허접 허접 허-접♪」
+「허접 허접 허ー접♪」
 「허～접 허～접♥」 
 작은 목소리로 매도당하고 있는 것 같은 기분이 들었다.
 가키는 피식 웃었다.</t>
@@ -4083,7 +4110,7 @@
   </si>
   <si>
     <t xml:space="preserve">「허접!!」 
-「허-접 허접 허접 허접 허-접♪」
+「허ー접 허접 허접 허접 허ー접♪」
 「허접! 허접!」
 「허～접 허～접♥」
 「허～접～」</t>
@@ -4205,50 +4232,37 @@
     <t xml:space="preserve">adv_mesherada</t>
   </si>
   <si>
-    <t xml:space="preserve">「이 탐구에만 몇 년이 걸렸어」
-「내 마음은, 무한한 길 그 끝에서도 &amp;여전히 당신을 기억하고 있어」
-「내 길은 영원히 이어질 거야」
-「당신과 함께라면 &amp;어떤 길이든 멀지 않아」
-「삶이 몇 번이고 지나가도, &amp;지금도 맹세한 당신을 찾고 있어」
-「당신을 보면 뭔가 그리운 느낌이 들어」
-「운명이 드디어 날 이끈 건가?」
-「바람이 당신의 이름을 옮겨 주고 있어」
-「당신이 정말로 &amp;내가 그토록 찾던 사람일까?」
-「이 여행이 계속되는 건 &amp;맹세가 나를 옭아매고 있기 때문이야」
-「당신도 맹세의 울림을 들을 수 있어?」
-「당신의 눈빛은 마치 잊어버린 꿈 같아…」
-「정말로 당신이야?」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"This search spans ages, yet my heart knows &amp;thee still, across lifetimes and boundless paths."
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「마음은 결코 잊지 않아. &amp;몇 천 년의 세월이 흘러도, 삶이 몇 번이나 지나가도」
+「끝이 없는 이 길도 &amp;그대를 위해서라면 멀지 않아」
+「다시 태어나도 내 마음은 &amp;맹세한 사람을 찾아 헤매고 있어」
+「그래도 나는 멈추지 않고 &amp;계속 찾아 헤매겠지」
+「약속이 나를 이 여행에 묶어두고 있어」
+「바람이 그대의 이름을 싣고 있구나」
+「그대의 눈빛은 &amp;잊어버린 꿈처럼 느껴져」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ages pass, across lifetimes and boundless &amp;paths, yet my heart remembers."
 "Mine path stretches eternal, but for thee, &amp;it shall never feel too long."
 "Lifetimes pass, yet my heart still yearns for &amp;the one I swore to find."
-"Thou hast a presence faintly familiar."
-"Hath fate finally led me to thee?"
+"Still I walk... still I search."
+"A promise binds me to this journey."
 "The winds carry thy name."
-"Couldst thou truly be the one &amp;I’ve sought across lifetimes?"
-"A promise binds me to this journey..."
-"Dost thou feel the echoes of such a vow?"
-"Thy gaze feels like a forgotten dream..."
-"Could it truly be thee?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この探求は幾年月にも及ぶ」
-「私の心は、無限の道の果てでなお&amp;君を知っている」
-「私の道は永遠に続く」
-「あなたと一緒なら&amp;どんな道も長くは感じない」
-「幾つもの生が過ぎ去ろうとも、&amp;今も誓ったあなたを求めている」
-「あなたにはどこか懐かさを感じる」
-「運命がついに私を導いたの？」
-「風があなたの名を運んでくる」
-「あなたは本当に&amp;探し求めてきた人？」
-「この旅を続けるのは&amp;誓いが私を縛るから」
-「あなたにも誓いの残響が聞こえるかしら？」
-「あなたの眼差しは忘れられた夢のよう…」
-「本当にあなたなの？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「이게 무슨 무례니!」
+"Thy gaze feels like a forgotten dream..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「心は決して忘れない。&amp;幾千もの歳月が流れ、幾度の生を越えても」
+「果てしないこの道も&amp;そなたのためなら長すぎることはない」
+「生まれ変わってもなお&amp;心は誓った相手を探し求めている」
+「それでも私は歩み続け&amp;探し続けるだろう」
+「約束が私をこの旅へと縛るのだ」
+「風がそなたの名を運んでくる」
+「そなたのまなざしは&amp;忘れられた夢のように感じる」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「이 얼마나 무례한!」
 「날 방해하다니!」</t>
   </si>
   <si>
@@ -4256,20 +4270,20 @@
 "Getting in the way of mine search."</t>
   </si>
   <si>
-    <t xml:space="preserve">「なんて無礼なの！」
-「私の探し物の邪魔をするなんて！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「다시 태어나도 당신을 찾을 거야…」</t>
+    <t xml:space="preserve">「なんと無礼な！」
+「私の探し物の邪魔をするなど！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「다시 태어나도 그대를 찾을 거야…」</t>
   </si>
   <si>
     <t xml:space="preserve">"I shall continue my search for thee &amp;in mine next life..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「生まれ変わってもあなたを探し続けるわ…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「미안해…」
+    <t xml:space="preserve">「生まれ変わってもそなたを探し続けよう…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「미안하구나…」
 「나는 사슬에 묶여 있어」</t>
   </si>
   <si>
@@ -4277,8 +4291,23 @@
 "These shackles that were once my wish &amp;won't ever release me."</t>
   </si>
   <si>
-    <t xml:space="preserve">「ごめんなさい... 」
+    <t xml:space="preserve">「すまぬ... 」
 「私は鎖に繋がれている」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exile_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「추방자…」
+「추방자…♥」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Exiles..."
+"Exiles...♥"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ついほうしゃ…」
+「追放者…♥」</t>
   </si>
 </sst>
 </file>
@@ -4362,16 +4391,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4511,3791 +4544,3826 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="P12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="Q12" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="O14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="Q14" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P15" s="0" t="s">
+      <c r="P15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Q15" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="O16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="P16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="Q16" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="O18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="P18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="Q18" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="O19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="P19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="Q19" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="O20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="P20" s="0" t="s">
+      <c r="P20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q20" s="0" t="s">
+      <c r="Q20" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="O22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="P22" s="0" t="s">
+      <c r="P22" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Q22" s="0" t="s">
+      <c r="Q22" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="455.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O24" s="0" t="s">
+      <c r="O24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P24" s="0" t="s">
+      <c r="P24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q24" s="0" t="s">
+      <c r="Q24" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M26" s="0" t="s">
+      <c r="M26" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N26" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O26" s="0" t="s">
+      <c r="O26" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="P26" s="0" t="s">
+      <c r="P26" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Q26" s="0" t="s">
+      <c r="Q26" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="M27" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="N27" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="N28" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="O28" s="0" t="s">
+      <c r="O28" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="P28" s="0" t="s">
+      <c r="P28" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Q28" s="0" t="s">
+      <c r="Q28" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="N29" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="O29" s="0" t="s">
+      <c r="O29" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="P29" s="0" t="s">
+      <c r="P29" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Q29" s="0" t="s">
+      <c r="Q29" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="264.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="O30" s="0" t="s">
+      <c r="O30" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Q30" s="0" t="s">
+      <c r="Q30" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="M31" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="N31" s="0" t="s">
+      <c r="N31" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="O31" s="0" t="s">
+      <c r="O31" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="P31" s="0" t="s">
+      <c r="P31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Q31" s="0" t="s">
+      <c r="Q31" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="I32" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="J32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="L33" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="M33" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="O34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="J34" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="K34" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="L34" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="M34" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="L35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="I35" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="J35" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="K35" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="L35" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="M35" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="N35" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="O35" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="P35" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="Q35" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="G36" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q37" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="N36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="O36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="P36" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q36" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="B37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="I42" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="347.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="192.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="J60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="F61" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="192.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="F65" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="P40" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q40" s="0" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="C69" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="P41" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q41" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="C70" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="264.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="P43" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q43" s="0" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="C86" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="D45" s="0" t="s">
+      <c r="L87" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="N87" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="N45" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="N46" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="O87" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="M47" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="P47" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q47" s="0" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="M48" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="N48" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="P48" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q48" s="0" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="F88" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="P49" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q49" s="0" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="P50" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="N51" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="P51" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q51" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="P52" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q52" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="P53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q53" s="0" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="C89" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="N54" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="N55" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="P55" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q55" s="0" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="N56" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O56" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="P56" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q56" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="P57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q57" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="L58" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="O58" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q58" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="O59" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="P59" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q59" s="0" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="L60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="N60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="O60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="P60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q60" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="N61" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="P61" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q61" s="0" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="N64" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="P64" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q64" s="0" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="P66" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q66" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="L67" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="M67" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="N67" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="O67" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="P67" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q67" s="0" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="N73" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="P73" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q73" s="0" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="N75" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="P75" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q75" s="0" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="L76" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="N76" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="P76" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="N77" s="0" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="M80" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="N81" s="0" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="N83" s="0" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="L84" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="M84" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="N84" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="O84" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="P84" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q84" s="0" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="B86" s="0" t="s">
+      <c r="C104" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="371.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="L86" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="M86" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="N86" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="O86" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="P86" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q86" s="0" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="L88" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="M88" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="N88" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="O88" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="P88" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q88" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="K92" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="L92" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="M92" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="N92" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="O92" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="P92" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q92" s="0" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="L96" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="M96" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="N96" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="O96" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="P96" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="Q96" s="0" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="L101" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="M101" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="N101" s="0" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="L103" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="M103" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="N103" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="B104" s="0" t="s">
+      <c r="C106" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="O104" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="P104" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q104" s="0" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="L105" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="M105" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="N105" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="J106" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="K106" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="L106" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="M106" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="N106" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="O106" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="P106" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="Q106" s="0" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>864</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="L107" s="0" t="s">
-        <v>867</v>
-      </c>
-      <c r="M107" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="N107" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="L108" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="M108" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="N108" s="0" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q109" s="2" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="L110" s="0" t="s">
+      <c r="C110" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="M110" s="0" t="s">
+      <c r="D110" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="N110" s="0" t="s">
+      <c r="E110" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="O110" s="2" t="s">
+      <c r="I110" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="P110" s="2" t="s">
+      <c r="J110" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="K110" s="3" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="L110" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="M110" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="N110" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="O110" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="P110" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="Q110" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="K111" s="2" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="311.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="L111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="M111" s="0" t="s">
+      <c r="C111" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="N111" s="0" t="s">
+      <c r="D111" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="O111" s="2" t="s">
+      <c r="E111" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="P111" s="2" t="s">
+      <c r="I111" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="Q111" s="2" t="s">
+      <c r="J111" s="3" t="s">
         <v>919</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="945">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">black_angel</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve"> *파닥파닥*
@@ -185,7 +185,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">「꺄아!」</t>
@@ -472,7 +472,7 @@
 「냐옹!」
 「야옹!」
 「먀옹!」
-「냣!」</t>
+「후캬악!」</t>
   </si>
   <si>
     <t xml:space="preserve">"Meow!"
@@ -627,10 +627,10 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「야옹!」
+*ごろごろ*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「후캬악!」
 「우먀먓!」
 「미양!」</t>
   </si>
@@ -1620,6 +1620,9 @@
   </si>
   <si>
     <t xml:space="preserve">merchant_festival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">주위는 축제에 온 사람들로 붐비고 있다.
@@ -3592,7 +3595,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">리틀 시스터「죽여! 죽여!」
@@ -3988,7 +3991,7 @@
   <si>
     <t xml:space="preserve">「あんな極上の女はそうはいねえ」
 「俺の手に掛かれば、どんな女もイチコロよ」
- *レロレロレロ*
+*レロレロレロ*
 「まったく罪な男に生まれちまったもんだ」</t>
   </si>
   <si>
@@ -4293,6 +4296,141 @@
   <si>
     <t xml:space="preserve">「すまぬ... 」
 「私は鎖に繋がれている」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_yukiimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me의 푹신푹신한 꼬리가 흔들리고 있다.
+#me은(는) 눈으로 먼 곳의 작은 동물들을 쫓고 있다.
+고양이에 굶주린 #me은(는) 안절부절 못하고 있다.
+#me은(는) 털을 다듬고 있다.
+「#onii2♪」
+「뭐 해, #onii2?」
+「앞으로 어떤 모험이 기다리고 있을까?」
+「고양이 냄새 맡아본 적 있어? &amp;건초랑 팝콘 냄새가 나」
+「고양이는 좋은 냄새가 나」
+「나… 고양이 마려워」
+「솔질 해 줘도 돼. 바로 나한테 말이야!」
+「안냥, 좀 어때?」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me's fluffy tail is swinging.
+#me's eyes are following a small animal in the distance.
+#me is starved for cat sniffs and losing her calmness.
+#me is grooming her fur.
+"#onii2♪"
+"What are you doing, #onii2?"
+"What kind of adventures await us?"
+"Have you smelled a cat? &amp;It smells like hay and popcorn."
+"Cats smell too good."
+"I... want to smell a cat."
+"You can brush me, right here! hehe"
+"Meowdy, hows going?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#meのもふもふの尻尾が揺れている。
+#meの目は遠くの小動物を追っている。
+猫吸いに飢えた#meは落ち着きを失っている。
+#meは毛づくろいをしている。
+「#onii2♪」
+「なにしてるの、#onii2？」
+「この先に、どんな冒険が待っているのかな？」
+「猫を嗅いだことある？&amp;干し草とポップコーンの香りだよ」
+「猫はね、いい匂いがする」
+「僕…猫が吸いたい」
+「ブラッシングしてもいいよ、この僕に！」
+「にゃっす、調子どう？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me의 털이 곤두섰다.
+#me의 푹신푹신한 꼬리가 두 배나 크게 부풀려졌다.
+#me의 눈이 반짝거리고 있다.
+「#onii2, 물러서」
+「기다리고 있었어〜!」
+「왜 그래? 죽을 것 같아?」
+「뭐 하는 거야!」
+「피가 보고 싶어… 알겠지?」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me's hair stands on end.
+#me's fluffy tail has doubled in size now.
+#me's eyes are shining brightly.
+"#onii2, move!"
+"I've been waiting for this!"
+"What's up? Are you dying?"
+"What are you DOING?"
+"I'd like to see some blood…you know?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#meの毛が逆立っている。
+#meのもふもふの尻尾は倍の大きさになっている。
+#meの目は爛々と輝いている。
+「#onii2、どいて」
+「待ってました〜！」
+「どうしたの？死んじゃう？」
+「何すんの！」
+「血が見たい…ね？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「그 녀석 못 죽이겠어!」
+「안 돼애!」
+「조심해…」
+「이 녀석, 강해…」
+「어째서…?」
+「미안… 나 방심했어」
+「다시 만날 수 있어…」
+「지금은, 이게 최선…」
+「소용이 없지는…않았지?」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"No!"
+"Be careful..."
+"That's a tough one…"
+"Why...?"
+"I'm sorry, I... let my guard down."
+"Let's meet again soon…"
+"For now, this is the best I can do…"
+"Besides, it isn't a futile effort...right?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「そいつ殺せない！」
+「ダメぇ！」
+「気をつけて…」
+「こいつ、手強いよ…」
+「なんで…？」
+「ごめん、僕…油断しちゃった」
+「また逢えるよ…」
+「今は、これが精一杯…」
+「無駄でもなかった…でしょ？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me은(는) 몸을 쭈욱 폈다.
+#me은(는) 몸에 튄 피를 닦고 있다.
+「느낌이 좋네, #onii2」
+「참 잘했어요」
+「좀 더 싸우고 싶어」
+「자자, 나랑 좀 더 놀자」
+「흐흥」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#me stretches out.
+#me is wiping the returned blood.
+"You're looking good, #onii2."
+"Well done."
+"I wanna fight more."
+"Come on, play with me some more."
+"Fufun."
+"Hehe."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#meはぐーっと伸びをした。
+#meは返り血を拭っている。
+「良い感じだね、#onii2」
+「よくできました」
+「もっと戦いたい」
+「ほらほら、もっと僕と遊ぼ」
+「ふふん」</t>
   </si>
   <si>
     <t xml:space="preserve">exile_girl</t>
@@ -4320,7 +4458,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="Noto Sans KR"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -4391,20 +4529,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4544,3826 +4678,3870 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
+      <selection pane="bottomLeft" activeCell="L113" activeCellId="0" sqref="L113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="0" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="0" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="0" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="0" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="455.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="0" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="0" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="0" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="264.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="0" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="34" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="35" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+    <row r="36" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" s="0" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="37" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q73" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q84" s="0" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="P86" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="O92" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q92" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C96" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q96" s="0" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C97" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="P104" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q104" s="0" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="347.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C106" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="N106" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="O106" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="P106" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q106" s="0" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="192.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q63" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="192.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="264.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="C107" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="M107" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="N107" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="N108" s="0" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="M110" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="N110" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="N111" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="P87" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="O103" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q103" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="371.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="O105" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="P105" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q105" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="O107" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="P107" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="Q107" s="3" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="O109" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="P109" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="Q109" s="3" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="O110" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="P110" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="Q110" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="311.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>915</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="O111" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q111" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>930</v>
+      <c r="C113" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>944</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1051">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1159,6 +1159,24 @@
   <si>
     <t xml:space="preserve">*ドスン*
 *ズシン*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *바스락바스락*
+ *바스락…*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*skitter skitter*
+*scurry...*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*カサカサ*
+*カサ…*</t>
   </si>
   <si>
     <t xml:space="preserve">horse</t>
@@ -3575,6 +3593,39 @@
     <t xml:space="preserve">「つまらぬな」</t>
   </si>
   <si>
+    <t xml:space="preserve">mech_golem_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「간다!」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Here we go!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「行くぞ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「뒤를 부탁한다, 윗지!」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I’ll leave the rest to you, Widge!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あとは任せたぜ、ウィッジ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mech_golem_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「뒤를 부탁한다, 힉스!」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I’ll leave the rest to you, Higgs!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あとは任せたぜ、ヒッグス！」</t>
+  </si>
+  <si>
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
@@ -4046,7 +4097,7 @@
 아찔할 정도로 아름다운 엘레아의 옆 모습이 당신의 눈에 띄었다.
 「이 세상은 지금, 크게 변하려 하고 있어」
 「베르니스에서 봤던 그 남자… 설마…」
-신비로운 고대의 말로 누군가가 속삭였다.神秘的な古代の言葉で誰かが囁いた。
+신비로운 고대의 말로 누군가가 속삭였다.
 「당신은 자존심이 너무 세. &amp;엘레아는 아무 짓도 안 해도 이단시되고 있는데」</t>
   </si>
   <si>
@@ -5017,17 +5068,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H134" activeCellId="0" sqref="H134"/>
+      <selection pane="bottomLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="1" style="1" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="1" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5938,965 +5991,947 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="H27" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="O28" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="P28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="M28" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="L29" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="O30" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="P30" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="Q30" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="O31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="M32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="O32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="N33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="M34" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="N34" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q34" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="M35" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="M35" s="3" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="I36" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="J36" s="3" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="M37" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="N37" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="N38" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M39" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="K41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="J42" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="K42" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="L42" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="M42" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="N42" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="I43" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="J43" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="K43" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="N43" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="O43" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="P43" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="Q43" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="M43" s="3" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="B44" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="L44" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="M44" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="N44" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="J45" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="K45" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="L45" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="M45" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="N45" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q45" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="M46" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="N46" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="O46" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="E47" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="N47" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="I49" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="J49" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="K49" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="N49" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="K50" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="N50" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="J51" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="K51" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="L51" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="M51" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="N51" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="O51" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="P51" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="Q51" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I51" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>476</v>
@@ -6908,268 +6943,259 @@
         <v>478</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="K55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="I56" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="L56" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="3" t="s">
+      <c r="N56" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="O56" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="P56" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="Q56" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="M56" s="1" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="I57" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="O57" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="P57" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="Q57" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="F58" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>241</v>
@@ -7199,572 +7225,605 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>525</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J59" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="K59" s="1" t="s">
         <v>241</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="M59" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="N59" s="1" t="s">
         <v>241</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="P59" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="Q59" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>529</v>
       </c>
+      <c r="E60" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="I60" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>530</v>
+        <v>241</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>530</v>
+        <v>241</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>530</v>
+        <v>241</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>530</v>
+        <v>241</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>530</v>
+        <v>241</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="H61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>18</v>
+      <c r="E62" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>543</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="I63" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="O63" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="M64" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="O64" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="P64" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="Q64" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="J64" s="3" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q64" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="O65" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="P65" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="Q65" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J65" s="3" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="I66" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="J66" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="K66" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="N66" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="O66" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="P66" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q66" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>598</v>
+      <c r="I68" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>599</v>
+        <v>356</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>601</v>
+        <v>356</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>602</v>
+        <v>356</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>603</v>
+        <v>356</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>604</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M69" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="N69" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="K73" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="I74" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="K74" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="I74" s="1" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="P74" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="N75" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="O75" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="P75" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="Q75" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>645</v>
       </c>
@@ -7783,457 +7842,451 @@
       <c r="K76" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="L76" s="1" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="O77" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="P77" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="Q77" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="I77" s="1" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="L77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="O77" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="P77" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q77" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>18</v>
+      <c r="K78" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="O78" s="3" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P78" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="N79" s="1" t="s">
+      <c r="I80" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="K80" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="P80" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q80" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C81" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="D81" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="L82" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="M82" s="1" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="M83" s="1" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="E84" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="L84" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M84" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="I85" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="K85" s="3" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="L86" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="I87" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="O86" s="1" t="s">
+      <c r="J87" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="K87" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="Q86" s="1" t="s">
+      <c r="L87" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="N87" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="L88" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="M88" s="1" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="E89" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="Q88" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" s="3" t="s">
+      <c r="N89" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="O89" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="O89" s="3" t="s">
+      <c r="P89" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="Q89" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="Q89" s="3" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>742</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="L90" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="M90" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="N90" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="O90" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="P90" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q90" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="F91" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="G91" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="H91" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>753</v>
+      <c r="I91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>756</v>
@@ -8253,983 +8306,1061 @@
         <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="L94" s="1" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="Q94" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="N95" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C98" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="I98" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="J98" s="3" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="H100" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="E99" s="3" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="J101" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="K101" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="L101" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="M101" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="N101" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O101" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>632</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="M104" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="N104" s="3" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="O104" s="3" t="s">
+      <c r="B105" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="P104" s="3" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="Q104" s="3" t="s">
+      <c r="B106" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="N106" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C105" s="3" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="B107" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="J107" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="M105" s="1" t="s">
+      <c r="K107" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="N105" s="1" t="s">
+      <c r="L107" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="O105" s="3" t="s">
+      <c r="M107" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="P105" s="3" t="s">
+      <c r="N107" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="Q105" s="3" t="s">
+      <c r="O107" s="3" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="P107" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="Q107" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="L107" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="D109" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="N107" s="1" t="s">
+      <c r="E109" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="O107" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="P107" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="Q107" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="L109" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="O109" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="P109" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="C111" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="C112" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="E111" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="I113" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="L111" s="3" t="s">
+      <c r="J113" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="M111" s="3" t="s">
+      <c r="K113" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="N111" s="3" t="s">
+      <c r="L113" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="O111" s="3" t="s">
+      <c r="M113" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="P111" s="3" t="s">
+      <c r="N113" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="Q111" s="3" t="s">
+      <c r="O113" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="P113" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="Q113" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="I113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="C114" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="K113" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="E114" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="M113" s="1" t="s">
+      <c r="I114" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="N113" s="1" t="s">
+      <c r="J114" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="O113" s="3" t="s">
+      <c r="K114" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="P113" s="3" t="s">
+      <c r="L114" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="Q113" s="3" t="s">
+      <c r="M114" s="3" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="N114" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="I114" s="1" t="s">
+      <c r="O114" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="P114" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="K114" s="1" t="s">
+      <c r="Q114" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="L114" s="1" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="M114" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="N114" s="1" t="s">
+      <c r="D115" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="O114" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="P114" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="Q114" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="M116" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="O116" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="P116" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="M115" s="1" t="s">
+      <c r="Q116" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="N115" s="1" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="O115" s="3" t="s">
+      <c r="B117" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="P115" s="3" t="s">
+      <c r="J117" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="Q115" s="3" t="s">
+      <c r="K117" s="1" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+      <c r="L117" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="M117" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="N117" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="O117" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="P117" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="Q117" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="N116" s="1" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
         <v>966</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="M117" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="N117" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="O117" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="P117" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="Q117" s="3" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="N119" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="D118" s="3" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="K118" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="L118" s="1" t="s">
+      <c r="I120" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="J120" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="N118" s="1" t="s">
+      <c r="K120" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="O118" s="3" t="s">
+      <c r="L120" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="P118" s="3" t="s">
+      <c r="M120" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="Q118" s="3" t="s">
+      <c r="N120" s="3" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="O120" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="P120" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="Q120" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="D119" s="3" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="B121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="K119" s="3" t="s">
+      <c r="I121" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="L119" s="1" t="s">
+      <c r="J121" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="K121" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="L121" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="O119" s="3" t="s">
+      <c r="M121" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="P119" s="3" t="s">
+      <c r="N121" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="Q119" s="3" t="s">
+      <c r="O121" s="3" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="P121" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="Q121" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="C120" s="3" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="B122" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="K120" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="L120" s="3" t="s">
+      <c r="J122" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="M120" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="N120" s="3" t="s">
+      <c r="L122" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="O120" s="3" t="s">
+      <c r="M122" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="P120" s="3" t="s">
+      <c r="N122" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="Q120" s="3" t="s">
+      <c r="O122" s="3" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="P122" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="Q122" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="D121" s="3" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="B123" s="1" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D123" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q123" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>1034</v>
+      <c r="I125" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/CharaText.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1096">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">black_angel</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve"> *파닥파닥*
@@ -185,7 +185,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">「꺄아!」</t>
@@ -627,7 +627,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「후캬악!」
@@ -3711,7 +3711,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">리틀 시스터「죽여! 죽여!」
@@ -4093,6 +4093,9 @@
     <t xml:space="preserve">keeper_garden</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">「귀여운지고」
 「후호호호」</t>
   </si>
@@ -4131,6 +4134,87 @@
   </si>
   <si>
     <t xml:space="preserve">「フホホホホ、弱いのう！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namamani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「날 우습게 보는군」
+「또 오동작인가?」
+「좋아」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nice try."
+"Another malfunction?"
+"Good."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「馬鹿にしてくれるじゃないか」
+「また誤動作か？」
+「いいぞ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「저질러 주셨구만」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Great."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「やってくれたな」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「시시하군」
+「이제 이해됐나?」
+「흥」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"How trivial."
+"You understand now?"
+"Heh."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「くだらないな」
+「理解できたか？」
+「ふん」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namamani2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「너는 적인가?」
+「왜 나를?」
+「기억은 안 나지만, 어쩔 수 없지」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"You are my enemy then?"
+"Why?"
+"So be it."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「お前は敵なのか？」
+「何故私を？」
+「身に覚えはないが、仕方ない」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「죽는…건가?」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Am I... going to die? "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「死ぬ…のか？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「적…이었던 건가?」
+「나는 누구지?」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"So... you were my enemy?"
+"Who am I?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「敵…だったのか？」
+「私は何者だ？」</t>
   </si>
   <si>
     <t xml:space="preserve">erishe</t>
@@ -4311,7 +4395,7 @@
   <si>
     <t xml:space="preserve">「あんな極上の女はそうはいねえ」
 「俺の手に掛かれば、どんな女もイチコロよ」
-*レロレロレロ*
+ *レロレロレロ*
 「まったく罪な男に生まれちまったもんだ」</t>
   </si>
   <si>
@@ -5154,12 +5238,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+      <selection pane="bottomLeft" activeCell="J110" activeCellId="0" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8882,463 +8966,463 @@
         <v>891</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>43</v>
+        <v>892</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="I112" s="0" t="s">
+      <c r="K112" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="J112" s="0" t="s">
+      <c r="L112" s="0" t="s">
         <v>909</v>
       </c>
-      <c r="K112" s="0" t="s">
+      <c r="M112" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="L112" s="0" t="s">
+      <c r="N112" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="M112" s="0" t="s">
+      <c r="O112" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="N112" s="0" t="s">
+      <c r="P112" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="O112" s="0" t="s">
+      <c r="Q112" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="P112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>915</v>
       </c>
-      <c r="Q112" s="0" t="s">
+      <c r="B113" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="J113" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="K113" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="L113" s="0" t="s">
         <v>919</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="M113" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="N113" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="O113" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="P113" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="L113" s="0" t="s">
+      <c r="Q113" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="M113" s="0" t="s">
-        <v>925</v>
-      </c>
-      <c r="N113" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="O113" s="0" t="s">
-        <v>927</v>
-      </c>
-      <c r="P113" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="Q113" s="0" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="I114" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="M114" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="N114" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="P114" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q114" s="0" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="J114" s="0" t="s">
-        <v>933</v>
-      </c>
-      <c r="K114" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="L114" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="M114" s="0" t="s">
+      <c r="C115" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="L115" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="M115" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="N115" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="O115" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="P115" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="N114" s="0" t="s">
+      <c r="Q115" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="O114" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="P114" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="Q114" s="0" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>941</v>
-      </c>
-      <c r="B115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="L116" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="M116" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="N116" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="O116" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="P116" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q116" s="0" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>945</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="K115" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="L115" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="M115" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="N115" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="O115" s="0" t="s">
-        <v>951</v>
-      </c>
-      <c r="P115" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="Q115" s="0" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="M116" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="O116" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="P116" s="2" t="s">
+      <c r="I117" s="0" t="s">
         <v>966</v>
       </c>
-      <c r="Q116" s="2" t="s">
+      <c r="J117" s="0" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="K117" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="C117" s="0" t="s">
+      <c r="L117" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M117" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="N117" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="O117" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="P117" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q117" s="0" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="K118" s="0" t="s">
-        <v>973</v>
-      </c>
-      <c r="L118" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="M118" s="0" t="s">
-        <v>975</v>
-      </c>
-      <c r="N118" s="0" t="s">
         <v>976</v>
       </c>
+      <c r="C118" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>985</v>
+      </c>
       <c r="O118" s="2" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>955</v>
+        <v>976</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>969</v>
+        <v>990</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>969</v>
+        <v>990</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="J119" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="K119" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="L119" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="M119" s="0" t="s">
-        <v>985</v>
-      </c>
-      <c r="N119" s="0" t="s">
-        <v>986</v>
-      </c>
-      <c r="O119" s="0" t="s">
-        <v>987</v>
-      </c>
-      <c r="P119" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="Q119" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="D120" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="L120" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="M120" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="N120" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M121" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N121" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="O121" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P121" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q121" s="0" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>991</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>992</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="L120" s="0" t="s">
-        <v>994</v>
-      </c>
-      <c r="M120" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="N120" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="O120" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="Q120" s="2" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L121" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M121" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N121" s="0" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I122" s="2" t="s">
+      <c r="C122" s="0" t="s">
         <v>1012</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="D122" s="0" t="s">
         <v>1013</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="E122" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="L122" s="2" t="s">
+      <c r="L122" s="0" t="s">
         <v>1015</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="0" t="s">
         <v>1016</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="N122" s="0" t="s">
         <v>1017</v>
       </c>
       <c r="O122" s="2" t="s">
@@ -9351,7 +9435,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>1021</v>
       </c>
@@ -9367,172 +9451,242 @@
       <c r="E123" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="L123" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="M123" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="N123" s="0" t="s">
         <v>1027</v>
       </c>
-      <c r="L123" s="0" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>1028</v>
       </c>
-      <c r="M123" s="0" t="s">
+      <c r="B124" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="N123" s="0" t="s">
+      <c r="C124" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="O123" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="P123" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="Q123" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="J124" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="K124" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="L124" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="M124" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="N124" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="O124" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="P124" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="Q124" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="L124" s="0" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
         <v>1042</v>
       </c>
-      <c r="M124" s="0" t="s">
+      <c r="B125" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="N124" s="0" t="s">
+      <c r="D125" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="O124" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="P124" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="Q124" s="2" t="s">
+      <c r="J125" s="2" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="K125" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="L125" s="0" t="s">
         <v>1049</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="M125" s="0" t="s">
         <v>1050</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="N125" s="0" t="s">
         <v>1051</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="O125" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="P125" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="Q125" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="K125" s="2" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="B126" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="M125" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="N125" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="O125" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="P125" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="Q125" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="K126" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="L126" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="M126" s="0" t="s">
         <v>1064</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="N126" s="0" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O126" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B127" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B129" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="I127" s="0" t="s">
-        <v>1067</v>
-      </c>
-      <c r="J127" s="0" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K127" s="0" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L127" s="0" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M127" s="0" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N127" s="0" t="s">
+      <c r="I129" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L129" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M129" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N129" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="O127" s="0" t="s">
-        <v>1072</v>
-      </c>
-      <c r="P127" s="0" t="s">
-        <v>1073</v>
-      </c>
-      <c r="Q127" s="0" t="s">
-        <v>1074</v>
+      <c r="O129" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P129" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q129" s="0" t="s">
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
